--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna4-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7471093333333334</v>
+        <v>1.180761</v>
       </c>
       <c r="H2">
-        <v>2.241328</v>
+        <v>3.542283</v>
       </c>
       <c r="I2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="J2">
-        <v>0.4648531405557055</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,39 +555,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N2">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O2">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0002126771235555556</v>
+        <v>0.013415412895</v>
       </c>
       <c r="R2">
-        <v>0.001914094112</v>
+        <v>0.120738716055</v>
       </c>
       <c r="S2">
-        <v>0.000616791969949369</v>
+        <v>0.6103536098015441</v>
       </c>
       <c r="T2">
-        <v>0.000616791969949369</v>
+        <v>0.6103536098015441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -599,60 +599,60 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7471093333333334</v>
+        <v>0.4799286666666667</v>
       </c>
       <c r="H3">
-        <v>2.241328</v>
+        <v>1.439786</v>
       </c>
       <c r="I3">
-        <v>0.4648531405557055</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="J3">
-        <v>0.4648531405557055</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.214258</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N3">
-        <v>0.642774</v>
+        <v>0.034085</v>
       </c>
       <c r="O3">
-        <v>0.9986731466002101</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.99867314660021</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1600741515413333</v>
+        <v>0.005452789534444444</v>
       </c>
       <c r="R3">
-        <v>1.440667363872</v>
+        <v>0.04907510581</v>
       </c>
       <c r="S3">
-        <v>0.4642363485857561</v>
+        <v>0.2480825451952105</v>
       </c>
       <c r="T3">
-        <v>0.4642363485857561</v>
+        <v>0.2480825451952105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4799286666666667</v>
+        <v>0.2047916666666667</v>
       </c>
       <c r="H4">
-        <v>1.439786</v>
+        <v>0.614375</v>
       </c>
       <c r="I4">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="J4">
-        <v>0.2986127170267525</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,214 +679,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0002846666666666666</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N4">
-        <v>0.0008539999999999999</v>
+        <v>0.034085</v>
       </c>
       <c r="O4">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.001326853399789941</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0001366196937777778</v>
+        <v>0.002326774652777778</v>
       </c>
       <c r="R4">
-        <v>0.001229577244</v>
+        <v>0.020940971875</v>
       </c>
       <c r="S4">
-        <v>0.0003962152988074581</v>
+        <v>0.1058599775968842</v>
       </c>
       <c r="T4">
-        <v>0.0003962152988074581</v>
+        <v>0.1058599775968842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4799286666666667</v>
+        <v>0.06907100000000001</v>
       </c>
       <c r="H5">
-        <v>1.439786</v>
+        <v>0.207213</v>
       </c>
       <c r="I5">
-        <v>0.2986127170267525</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="J5">
-        <v>0.2986127170267525</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.214258</v>
+        <v>0.01136166666666667</v>
       </c>
       <c r="N5">
-        <v>0.642774</v>
+        <v>0.034085</v>
       </c>
       <c r="O5">
-        <v>0.9986731466002101</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.99867314660021</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.1028285562626667</v>
+        <v>0.0007847616783333333</v>
       </c>
       <c r="R5">
-        <v>0.9254570063640001</v>
+        <v>0.007062855105</v>
       </c>
       <c r="S5">
-        <v>0.298216501727945</v>
+        <v>0.03570386740636119</v>
       </c>
       <c r="T5">
-        <v>0.298216501727945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3801563333333333</v>
-      </c>
-      <c r="H6">
-        <v>1.140469</v>
-      </c>
-      <c r="I6">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="J6">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.0002846666666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.0008539999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="P6">
-        <v>0.001326853399789941</v>
-      </c>
-      <c r="Q6">
-        <v>0.0001082178362222222</v>
-      </c>
-      <c r="R6">
-        <v>0.0009739605259999999</v>
-      </c>
-      <c r="S6">
-        <v>0.0003138461310331138</v>
-      </c>
-      <c r="T6">
-        <v>0.0003138461310331138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3801563333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.140469</v>
-      </c>
-      <c r="I7">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="J7">
-        <v>0.2365341424175421</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.214258</v>
-      </c>
-      <c r="N7">
-        <v>0.642774</v>
-      </c>
-      <c r="O7">
-        <v>0.9986731466002101</v>
-      </c>
-      <c r="P7">
-        <v>0.99867314660021</v>
-      </c>
-      <c r="Q7">
-        <v>0.08145153566733332</v>
-      </c>
-      <c r="R7">
-        <v>0.7330638210059999</v>
-      </c>
-      <c r="S7">
-        <v>0.236220296286509</v>
-      </c>
-      <c r="T7">
-        <v>0.236220296286509</v>
+        <v>0.03570386740636119</v>
       </c>
     </row>
   </sheetData>
